--- a/excel/exported/suppliers.xlsx
+++ b/excel/exported/suppliers.xlsx
@@ -13,42 +13,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
-  <si>
-    <t>SJA</t>
-  </si>
-  <si>
-    <t>sja</t>
-  </si>
-  <si>
-    <t>2021-03-30 14:48:15.0000000</t>
-  </si>
-  <si>
-    <t>DEMPO MANDIRI</t>
-  </si>
-  <si>
-    <t>LAMPUNG</t>
-  </si>
-  <si>
-    <t>2021-04-05 08:54:39.0000000</t>
-  </si>
-  <si>
-    <t>SULOTCO JAYA ABADI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+  <si>
+    <t xml:space="preserve">PT. JAYA MULIA  BANGKIT SUKSES </t>
+  </si>
+  <si>
+    <t>PARE-KEDIRI</t>
+  </si>
+  <si>
+    <t>2020-10-07 16:58:22.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-26 08:19:19.0000000</t>
+  </si>
+  <si>
+    <t>PT. OETOMO AGRINDO ABADI</t>
+  </si>
+  <si>
+    <t>SURABAYA</t>
+  </si>
+  <si>
+    <t>(031) 3520519</t>
+  </si>
+  <si>
+    <t>2020-10-08 21:52:34.0000000</t>
+  </si>
+  <si>
+    <t>2020-11-26 07:07:35.0000000</t>
+  </si>
+  <si>
+    <t>CV. SINAR AGUNG</t>
+  </si>
+  <si>
+    <t>JOMBANG</t>
+  </si>
+  <si>
+    <t>2020-10-09 08:58:46.0000000</t>
+  </si>
+  <si>
+    <t>PT. ZEKA AGRO PERKASA</t>
+  </si>
+  <si>
+    <t>2020-10-09 09:59:23.0000000</t>
+  </si>
+  <si>
+    <t>PT. KEDIRI INDAH</t>
+  </si>
+  <si>
+    <t>2020-10-09 13:52:24.0000000</t>
+  </si>
+  <si>
+    <t>SENTRA USAHA JAYA</t>
+  </si>
+  <si>
+    <t>JAKARTA</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:48:33.0000000</t>
+  </si>
+  <si>
+    <t>CV. EKA NUSA JAYA</t>
+  </si>
+  <si>
+    <t>MEDAN</t>
+  </si>
+  <si>
+    <t>2020-10-09 23:51:49.0000000</t>
+  </si>
+  <si>
+    <t>2020-12-07 11:11:57.0000000</t>
+  </si>
+  <si>
+    <t>PT. SURYA BUMI SENTOSA</t>
   </si>
   <si>
     <t>BANDAR LAMPUNG</t>
   </si>
   <si>
-    <t>2021-04-15 08:55:35.0000000</t>
-  </si>
-  <si>
-    <t>2021-04-27 08:49:35.0000000</t>
-  </si>
-  <si>
-    <t>SURYA BUMI SENTOSA</t>
-  </si>
-  <si>
-    <t>2021-06-30 17:38:23.0000000</t>
+    <t>2020-10-09 23:56:15.0000000</t>
+  </si>
+  <si>
+    <t>2021-03-02 19:46:26.0000000</t>
+  </si>
+  <si>
+    <t>CV. GENESIS</t>
+  </si>
+  <si>
+    <t>BANDUNG</t>
+  </si>
+  <si>
+    <t>2020-10-10 09:23:23.0000000</t>
+  </si>
+  <si>
+    <t>PT. SULOTCO JAYA ABADI</t>
+  </si>
+  <si>
+    <t>2020-10-12 08:05:04.0000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT. DEMPO MANDIRI </t>
+  </si>
+  <si>
+    <t>2020-10-12 08:15:28.0000000</t>
+  </si>
+  <si>
+    <t>CV. AGRI ANUGERAH LESTARI</t>
+  </si>
+  <si>
+    <t>PARE</t>
+  </si>
+  <si>
+    <t>2020-10-13 10:07:20.0000000</t>
+  </si>
+  <si>
+    <t>PT. SULOTCO JAYA ABADI.</t>
+  </si>
+  <si>
+    <t>MAKASAR</t>
+  </si>
+  <si>
+    <t>2020-10-14 08:38:00.0000000</t>
+  </si>
+  <si>
+    <t>TCE COFFEE TRADING LTD</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>2020-10-16 09:13:01.0000000</t>
+  </si>
+  <si>
+    <t>PT. BINTANG TUNGGAL SEJATI</t>
+  </si>
+  <si>
+    <t>SIDOARJO</t>
+  </si>
+  <si>
+    <t>2020-10-19 09:15:48.0000000</t>
+  </si>
+  <si>
+    <t>SEPANJANG</t>
+  </si>
+  <si>
+    <t>2020-10-19 09:20:08.0000000</t>
+  </si>
+  <si>
+    <t>CV. PAMENANG JAYA</t>
+  </si>
+  <si>
+    <t>KEDIRI</t>
+  </si>
+  <si>
+    <t>2020-10-20 11:26:21.0000000</t>
+  </si>
+  <si>
+    <t>PT. JAYA MULIA  BANGKIT SUKSES</t>
+  </si>
+  <si>
+    <t>2020-10-26 08:22:42.0000000</t>
+  </si>
+  <si>
+    <t>TORAJA</t>
+  </si>
+  <si>
+    <t>2020-11-04 08:28:28.0000000</t>
+  </si>
+  <si>
+    <t>2020-11-04 13:04:44.0000000</t>
+  </si>
+  <si>
+    <t>PT. KEDIRI INDAH - JOMBANG</t>
+  </si>
+  <si>
+    <t>2020-11-05 08:21:22.0000000</t>
+  </si>
+  <si>
+    <t>PT. SULOTCO JAYA ABADI'</t>
+  </si>
+  <si>
+    <t>TEMANGGUNG</t>
+  </si>
+  <si>
+    <t>2020-11-17 07:46:41.0000000</t>
+  </si>
+  <si>
+    <t>GRESIK</t>
+  </si>
+  <si>
+    <t>2020-12-16 17:14:33.0000000</t>
+  </si>
+  <si>
+    <t>2021-04-15 10:22:56.0000000</t>
+  </si>
+  <si>
+    <t>CV. PANCA ADI JAYA</t>
+  </si>
+  <si>
+    <t>2021-01-14 08:35:13.0000000</t>
+  </si>
+  <si>
+    <t>PT. SULOTCO JAYA ABADI"</t>
+  </si>
+  <si>
+    <t>JEMBER</t>
+  </si>
+  <si>
+    <t>2021-02-08 08:17:19.0000000</t>
+  </si>
+  <si>
+    <t>PT. SUNDI MAJU SEJAHTERA</t>
+  </si>
+  <si>
+    <t>2021-02-09 08:43:21.0000000</t>
+  </si>
+  <si>
+    <t>PT. ASIA MAKMUR</t>
+  </si>
+  <si>
+    <t>(0721) 31888</t>
+  </si>
+  <si>
+    <t>2021-05-20 08:15:59.0000000</t>
+  </si>
+  <si>
+    <t>TRUCK</t>
+  </si>
+  <si>
+    <t>2021-07-09 10:22:37.0000000</t>
+  </si>
+  <si>
+    <t>PT. SUMATRA MAKMUR SEJATI</t>
+  </si>
+  <si>
+    <t>2021-08-03 08:02:17.0000000</t>
   </si>
 </sst>
 </file>
@@ -92,7 +290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F29"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -109,7 +307,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -117,16 +315,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -134,16 +335,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -151,16 +352,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -168,16 +369,427 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
